--- a/AgOpenGPS/pgn.xlsx
+++ b/AgOpenGPS/pgn.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Desktop\AgOpenGPS-eringerli\AgOpenGPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4272C877-7E7A-493B-943F-68F1047532F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="5292" yWindow="5736" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -208,13 +214,175 @@
   </si>
   <si>
     <t>IMU Return</t>
+  </si>
+  <si>
+    <t>Port 5599</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>0: Roll</t>
+  </si>
+  <si>
+    <t>1: Pitch</t>
+  </si>
+  <si>
+    <t>2: Heading</t>
+  </si>
+  <si>
+    <t>from controller</t>
+  </si>
+  <si>
+    <t>from AOG</t>
+  </si>
+  <si>
+    <t>Mask uTurn</t>
+  </si>
+  <si>
+    <t>Mask Section Control</t>
+  </si>
+  <si>
+    <t>Value uTurn</t>
+  </si>
+  <si>
+    <t>Value Section Control</t>
+  </si>
+  <si>
+    <t>Autosteer Command</t>
+  </si>
+  <si>
+    <t>Steerangle</t>
+  </si>
+  <si>
+    <t>Distance from Line</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>0: activated</t>
+  </si>
+  <si>
+    <t>Autosteer Response</t>
+  </si>
+  <si>
+    <t>0: workswitch</t>
+  </si>
+  <si>
+    <t>1: steerswitch</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>IMU roll</t>
+  </si>
+  <si>
+    <t>IMU pitch</t>
+  </si>
+  <si>
+    <t>IMU heading</t>
+  </si>
+  <si>
+    <t>uTurn Out</t>
+  </si>
+  <si>
+    <t>uTurn In</t>
+  </si>
+  <si>
+    <t>7EF0</t>
+  </si>
+  <si>
+    <t>7EF1</t>
+  </si>
+  <si>
+    <t>int16, 1/100°</t>
+  </si>
+  <si>
+    <t>uint16, 1/100°</t>
+  </si>
+  <si>
+    <t>7EA0</t>
+  </si>
+  <si>
+    <t>7EB0</t>
+  </si>
+  <si>
+    <t>7EB1</t>
+  </si>
+  <si>
+    <t>7EC0</t>
+  </si>
+  <si>
+    <t>7EC1</t>
+  </si>
+  <si>
+    <t>uint16, mm</t>
+  </si>
+  <si>
+    <t>uint16, m/h</t>
+  </si>
+  <si>
+    <t>Section Control Force-On</t>
+  </si>
+  <si>
+    <t>Section Control Force-Off</t>
+  </si>
+  <si>
+    <t>7EB2</t>
+  </si>
+  <si>
+    <t>7EB3</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Rate Control</t>
+  </si>
+  <si>
+    <t>7ED1</t>
+  </si>
+  <si>
+    <t>7ED0</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Section Control Mode</t>
+  </si>
+  <si>
+    <t>0: Manual</t>
+  </si>
+  <si>
+    <t>1: Auto</t>
+  </si>
+  <si>
+    <t>Force-Off take precedence</t>
+  </si>
+  <si>
+    <t>7EB4</t>
+  </si>
+  <si>
+    <t>Section Control Current State</t>
+  </si>
+  <si>
+    <t>Section Control Set</t>
+  </si>
+  <si>
+    <t>Rate Control Settings</t>
+  </si>
+  <si>
+    <t>Impulses per litre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +448,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -352,6 +526,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -359,7 +581,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -404,39 +626,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,9 +821,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,6 +873,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -719,44 +1066,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CD26"/>
+  <dimension ref="A1:CD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1440" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="2" customWidth="1"/>
     <col min="7" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="2" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="21">
+    <row r="1" spans="1:82" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="21">
+    <row r="2" spans="1:82" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +1137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:82" s="11" customFormat="1" ht="30">
+    <row r="6" spans="1:82" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -888,11 +1237,11 @@
       <c r="CC6" s="24"/>
       <c r="CD6" s="24"/>
     </row>
-    <row r="7" spans="1:82" s="5" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:82" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="44"/>
       <c r="C7"/>
       <c r="D7" s="5" t="s">
         <v>26</v>
@@ -900,14 +1249,14 @@
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="46"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
@@ -980,7 +1329,7 @@
       <c r="CC7" s="25"/>
       <c r="CD7" s="25"/>
     </row>
-    <row r="8" spans="1:82" s="12" customFormat="1" ht="44.25" customHeight="1">
+    <row r="8" spans="1:82" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -988,18 +1337,18 @@
       <c r="C8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="8" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1425,7 @@
       <c r="CC8" s="25"/>
       <c r="CD8" s="25"/>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1157,7 +1506,7 @@
       <c r="CC9" s="24"/>
       <c r="CD9" s="24"/>
     </row>
-    <row r="10" spans="1:82" s="11" customFormat="1" ht="30">
+    <row r="10" spans="1:82" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1610,7 @@
       <c r="CC10" s="24"/>
       <c r="CD10" s="24"/>
     </row>
-    <row r="11" spans="1:82" ht="30">
+    <row r="11" spans="1:82" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
@@ -1358,7 +1707,7 @@
       <c r="CC11" s="24"/>
       <c r="CD11" s="24"/>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1439,7 +1788,7 @@
       <c r="CC12" s="24"/>
       <c r="CD12" s="24"/>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1520,7 +1869,7 @@
       <c r="CC13" s="24"/>
       <c r="CD13" s="24"/>
     </row>
-    <row r="14" spans="1:82" s="11" customFormat="1" ht="30">
+    <row r="14" spans="1:82" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1616,11 +1965,11 @@
       <c r="CC14" s="24"/>
       <c r="CD14" s="24"/>
     </row>
-    <row r="15" spans="1:82" ht="34.5" customHeight="1">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:82" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="45"/>
       <c r="D15" s="9" t="s">
         <v>42</v>
       </c>
@@ -1702,7 +2051,7 @@
       <c r="CC15" s="24"/>
       <c r="CD15" s="24"/>
     </row>
-    <row r="16" spans="1:82" ht="17.25" customHeight="1">
+    <row r="16" spans="1:82" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="9"/>
       <c r="F16" s="9"/>
       <c r="L16" s="24"/>
@@ -1777,7 +2126,7 @@
       <c r="CC16" s="24"/>
       <c r="CD16" s="24"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
@@ -1794,7 +2143,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1">
+    <row r="19" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
@@ -1811,11 +2160,11 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="40"/>
       <c r="C20"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1826,7 +2175,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1">
+    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>55</v>
       </c>
@@ -1847,14 +2196,14 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="1:12" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22"/>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -1862,12 +2211,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1">
+    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="14"/>
@@ -1879,11 +2228,11 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:12" s="15" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="40"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1893,7 +2242,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" ht="22.5" customHeight="1">
+    <row r="26" spans="1:12" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
@@ -1903,23 +2252,519 @@
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
+    <row r="28" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="36"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="38"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="C34" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D36" s="67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="48"/>
+      <c r="I51" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="48"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="46"/>
+      <c r="I52" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="38"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
+  <mergeCells count="54">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A20:B20"/>
@@ -1928,6 +2773,15 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
@@ -1935,24 +2789,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
